--- a/AP5/Management/les gens.xlsx
+++ b/AP5/Management/les gens.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Résultats" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,6 +566,41 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -584,41 +619,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,11 +841,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="530660832"/>
-        <c:axId val="530656520"/>
+        <c:axId val="423896464"/>
+        <c:axId val="423902344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="530660832"/>
+        <c:axId val="423896464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +885,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530656520"/>
+        <c:crossAx val="423902344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -889,7 +893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="530656520"/>
+        <c:axId val="423902344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +941,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530660832"/>
+        <c:crossAx val="423896464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1863,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,17 +1882,17 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="36"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="45" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1901,19 +1905,19 @@
         <f>_xlfn.IFNA(VLOOKUP(D3&amp;" "&amp;C3,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="16" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D3&amp;" "&amp;C3,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="42" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1924,15 +1928,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D4&amp;" "&amp;C4,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D4&amp;" "&amp;C4,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
@@ -1943,15 +1947,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D5&amp;" "&amp;C5,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D5&amp;" "&amp;C5,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1962,15 +1966,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D6&amp;" "&amp;C6,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D6&amp;" "&amp;C6,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H6" s="33"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
@@ -1981,18 +1985,18 @@
         <f>_xlfn.IFNA(VLOOKUP(D7&amp;" "&amp;C7,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D7&amp;" "&amp;C7,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="43"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2003,18 +2007,18 @@
         <f>_xlfn.IFNA(VLOOKUP(D8&amp;" "&amp;C8,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D8&amp;" "&amp;C8,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="43"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
@@ -2025,18 +2029,18 @@
         <f>_xlfn.IFNA(VLOOKUP(D9&amp;" "&amp;C9,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D9&amp;" "&amp;C9,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="43"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
@@ -2047,18 +2051,18 @@
         <f>_xlfn.IFNA(VLOOKUP(D10&amp;" "&amp;C10,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D10&amp;" "&amp;C10,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H10" s="33"/>
+      <c r="H10" s="43"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2069,15 +2073,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D11&amp;" "&amp;C11,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D11&amp;" "&amp;C11,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H11" s="34"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
@@ -2102,7 +2106,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="48" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2115,19 +2119,19 @@
         <f>_xlfn.IFNA(VLOOKUP(D13&amp;" "&amp;C13,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="39" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D13&amp;" "&amp;C13,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="39" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
@@ -2138,15 +2142,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D14&amp;" "&amp;C14,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="20" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D14&amp;" "&amp;C14,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
@@ -2157,15 +2161,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D15&amp;" "&amp;C15,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="20" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D15&amp;" "&amp;C15,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
@@ -2176,15 +2180,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D16&amp;" "&amp;C16,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="20" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D16&amp;" "&amp;C16,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
@@ -2195,15 +2199,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D17&amp;" "&amp;C17,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="20" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D17&amp;" "&amp;C17,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
@@ -2214,15 +2218,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D18&amp;" "&amp;C18,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="20" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D18&amp;" "&amp;C18,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
@@ -2233,15 +2237,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D19&amp;" "&amp;C19,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="20" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D19&amp;" "&amp;C19,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
@@ -2252,15 +2256,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D20&amp;" "&amp;C20,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F20" s="38"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="20" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D20&amp;" "&amp;C20,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H20" s="38"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
@@ -2271,15 +2275,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D21&amp;" "&amp;C21,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="20" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D21&amp;" "&amp;C21,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="31"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="8" t="s">
         <v>46</v>
       </c>
@@ -2304,7 +2308,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2317,19 +2321,19 @@
         <f>_xlfn.IFNA(VLOOKUP(D23&amp;" "&amp;C23,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="42" t="s">
         <v>54</v>
       </c>
       <c r="G23" s="16" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D23&amp;" "&amp;C23,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="42" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2340,15 +2344,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D24&amp;" "&amp;C24,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D24&amp;" "&amp;C24,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H24" s="33"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2359,15 +2363,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D25&amp;" "&amp;C25,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="43"/>
       <c r="G25" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D25&amp;" "&amp;C25,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H25" s="33"/>
+      <c r="H25" s="43"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2378,15 +2382,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D26&amp;" "&amp;C26,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F26" s="33"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D26&amp;" "&amp;C26,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H26" s="33"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
@@ -2397,15 +2401,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D27&amp;" "&amp;C27,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F27" s="33"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D27&amp;" "&amp;C27,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H27" s="33"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="2" t="s">
         <v>37</v>
       </c>
@@ -2416,15 +2420,15 @@
         <f>_xlfn.IFNA(VLOOKUP(D28&amp;" "&amp;C28,'Test 1'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F28" s="34"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(D28&amp;" "&amp;C28,'Test 2'!$E$2:$F$50,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H28" s="34"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
@@ -2453,51 +2457,51 @@
     </row>
     <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32"/>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="41" t="e">
+      <c r="C33" s="35"/>
+      <c r="D33" s="27" t="e">
         <f>F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="42" t="e">
+      <c r="E33" s="28" t="e">
         <f>H12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="43" t="e">
+      <c r="C34" s="26"/>
+      <c r="D34" s="29" t="e">
         <f>F22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="44" t="e">
+      <c r="E34" s="30" t="e">
         <f>H22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="45" t="e">
+      <c r="C35" s="36"/>
+      <c r="D35" s="31" t="e">
         <f>F29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="46" t="e">
+      <c r="E35" s="32" t="e">
         <f>H29</f>
         <v>#DIV/0!</v>
       </c>
@@ -2507,17 +2511,17 @@
     <sortCondition ref="D1"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="H23:H28"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="F13:F21"/>
     <mergeCell ref="H13:H21"/>
     <mergeCell ref="H3:H11"/>
     <mergeCell ref="F3:F11"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="H23:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2527,295 +2531,299 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO5"/>
+  <dimension ref="A1:BP5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="A1:BO5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="25"/>
-      <c r="BM1" s="25"/>
-      <c r="BN1" s="25"/>
-      <c r="BO1" s="25"/>
-    </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="25"/>
-      <c r="BD2" s="25"/>
-      <c r="BE2" s="22"/>
-      <c r="BF2" s="25"/>
-      <c r="BG2" s="25"/>
-      <c r="BH2" s="22"/>
-      <c r="BI2" s="25"/>
-      <c r="BJ2" s="25"/>
-      <c r="BK2" s="22"/>
-      <c r="BL2" s="25"/>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="25"/>
-    </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="22"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
-      <c r="BE3" s="22"/>
-      <c r="BF3" s="25"/>
-      <c r="BG3" s="25"/>
-      <c r="BH3" s="22"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="25"/>
-      <c r="BK3" s="22"/>
-      <c r="BL3" s="25"/>
-      <c r="BM3" s="25"/>
-      <c r="BN3" s="22"/>
-      <c r="BO3" s="25"/>
-    </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="22"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="24"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="25"/>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="22"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="22"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="24"/>
-      <c r="BN4" s="22"/>
-      <c r="BO4" s="25"/>
-    </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="54"/>
+      <c r="BK1" s="54"/>
+      <c r="BL1" s="54"/>
+      <c r="BM1" s="54"/>
+      <c r="BN1" s="54"/>
+      <c r="BO1" s="54"/>
+      <c r="BP1" s="54"/>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="51"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="54"/>
+      <c r="BK2" s="53"/>
+      <c r="BL2" s="51"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="51"/>
+      <c r="BP2" s="54"/>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="54"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="54"/>
+      <c r="BH3" s="53"/>
+      <c r="BI3" s="51"/>
+      <c r="BJ3" s="54"/>
+      <c r="BK3" s="53"/>
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="54"/>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="51"/>
+      <c r="BP3" s="54"/>
+    </row>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="54"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="54"/>
+      <c r="BK4" s="53"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="54"/>
+      <c r="BN4" s="53"/>
+      <c r="BO4" s="51"/>
+      <c r="BP4" s="54"/>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>

--- a/AP5/Management/les gens.xlsx
+++ b/AP5/Management/les gens.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12105" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Résultats" sheetId="1" r:id="rId1"/>
@@ -1867,7 +1867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -2533,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
